--- a/biology/Médecine/Hydropulseur/Hydropulseur.xlsx
+++ b/biology/Médecine/Hydropulseur/Hydropulseur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un hydropulseur (appelé aussi irrigateur oral) est un dispositif de soins à domicile, qui utilise un jet d'eau pulsé pour éliminer la plaque dentaire et les débris alimentaires entre les dents et sous la gencive et d'améliorer la santé gingivale.
 Le premier hydropulseur a été développé en 1962 aux États-Unis par un dentiste et un ingénieur, tous deux de Fort Collins, au Colorado. Depuis ce temps, les irrigateurs buccaux ont été évalués dans plus de 50 études scientifiques. Leurs promoteurs annoncent une amélioration de la santé parodontale notamment dans le cadre de la gingivite, du diabète, du port d'appareils orthodontiques, des couronnes et des implants.
